--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Septiembre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Septiembre.xlsx
@@ -227,17 +227,17 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Conciliación</t>
+          <t xml:space="preserve">Abandono Del Procedimiento</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Desistimiento</t>
+          <t xml:space="preserve">Conciliación</t>
         </is>
       </c>
       <c r="B4" s="65">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -261,13 +261,13 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">No Da Curso A La Demanda</t>
+          <t xml:space="preserve">No Da Curso A La Solicitud</t>
         </is>
       </c>
       <c r="B7" s="65">
@@ -277,21 +277,11 @@
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">No Da Curso A La Solicitud</t>
+          <t xml:space="preserve">Sentencia</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="inlineStr" r="A9">
-        <is>
-          <t xml:space="preserve">Sentencia</t>
-        </is>
-      </c>
-      <c r="B9" s="65">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
